--- a/materials/exp_lists/session_1_10.xlsx
+++ b/materials/exp_lists/session_1_10.xlsx
@@ -269,7 +269,7 @@
     <t>kambipu = стол?</t>
   </si>
   <si>
-    <t>reskane</t>
+    <t>reketre</t>
   </si>
   <si>
     <t>befadu</t>
@@ -350,10 +350,10 @@
     <t>ediste = качели?</t>
   </si>
   <si>
-    <t>reskane.wav</t>
-  </si>
-  <si>
-    <t>reskane = ведро?</t>
+    <t>reketre.wav</t>
+  </si>
+  <si>
+    <t>reketre = ведро?</t>
   </si>
   <si>
     <t>намордник</t>
